--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/27_Düzce_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/27_Düzce_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D026C4D2-0C7A-41E1-A936-A46082298168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{974EB7B6-B3B3-44E7-B9F1-FCE78E1CECED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{7EF02619-E730-4F3B-B972-F31F1B03783C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{8C92498C-C73F-434A-A514-7C198C1844DC}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -939,16 +939,16 @@
   <cellStyles count="12">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{91CBFD8E-E319-42B3-935F-E4144CF87675}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{8AE00949-0AE1-4956-80C8-1C8200213AE3}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{00C55D4F-32F5-4BC3-8D12-0258F018C689}"/>
-    <cellStyle name="Normal 2 4" xfId="5" xr:uid="{98E3C52F-BFDF-4E1C-905B-0D51407614BB}"/>
-    <cellStyle name="Normal 3" xfId="6" xr:uid="{4E2439F6-9AD7-4268-8602-A3D7BF3534B5}"/>
-    <cellStyle name="Normal 3 2" xfId="7" xr:uid="{68801850-8D11-4A18-A4BC-4A2563E3F71F}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="8" xr:uid="{183B2738-D25A-4B1C-A3B7-EB818637B461}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="9" xr:uid="{7049F488-7C79-4EE0-B0B0-24F9BE678310}"/>
-    <cellStyle name="Not 2" xfId="10" xr:uid="{9A2C2532-4B2E-4625-83C3-F4D2C5B122C6}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="11" xr:uid="{8DF86236-7CF3-4EFB-A443-B9F6D6ED6158}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{3FECBEB9-AA81-4B55-BD5B-31C3F124A287}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{0016EC1C-7642-486A-85D3-B44094B68DD0}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{A6CE2525-031E-4BD4-B0C5-0568FAE6C7C3}"/>
+    <cellStyle name="Normal 2 4" xfId="5" xr:uid="{2992A51B-9DA1-4BBD-A4E9-A2296DA7B86B}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{E3AF3C78-D6E7-4428-8813-95DB039D3825}"/>
+    <cellStyle name="Normal 3 2" xfId="7" xr:uid="{1A9429D4-A44A-4055-B79E-64458DF1761D}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="8" xr:uid="{4DCF911A-153A-4CF1-8F48-118989B76B06}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="9" xr:uid="{4B76C93A-7E69-47CF-B442-2AEE0D378A5C}"/>
+    <cellStyle name="Not 2" xfId="10" xr:uid="{57425B0C-5D0F-4BF5-A743-8A88644EC977}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="11" xr:uid="{2A8D4D3D-1658-4860-834E-F3FCC96B4692}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1318,7 +1318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605B49FC-82AD-4E72-AF2A-8C1DB2143C78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAA3BEE-285C-45B3-8FCB-1B05F39E5CCA}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2597,17 +2597,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F93CFA19-AC45-42C5-8819-52CF3ECA112F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA64D8FA-C9D1-4585-B95F-DA91790CC809}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A8E53519-A2BB-4630-A0B5-4324E5EDC56A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E3B6AC70-60B6-4C68-A854-2017C9201DF1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D0FE3ADD-D64E-47A5-A99D-88DBAAE6E9AC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E150F718-6498-4C55-8F3A-E79DACF05AE6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A7BF1F79-76D3-40AD-80F3-3D4986C138CC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{09827866-2F92-45FD-A855-17FCE920EDF7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E1B24893-F655-4F67-B068-F9EC2F025D58}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{90C5DE94-A495-435B-B289-7F5F582C1616}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D3F6D1BE-A8F6-431D-83CE-1A0784F6E87A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{71DC5048-320A-4385-B739-6C6FB6CA2945}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{13049823-9456-4D39-B47D-BEF3258495B3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6710D5FA-6085-42C5-A7D1-6CFE5394984C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{836F1EB9-C4D9-43CB-AB59-F4F0DD4FD0A4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1A34D8CF-A8EC-485B-B811-3D95100BA889}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B07C815E-0A3F-42D9-A866-BC417AA6CDDC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C5A34E22-1AC4-43AE-9C21-1B9E09B476AA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{66C987BA-9BB4-4D62-BF8A-7814BA7F7D31}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FBD5265E-BA43-45BA-9114-5C36F57BE8EC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FA02D41E-62DD-4F31-BE3A-9A7F90B3B6C4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{02CD1596-6890-4DAB-803C-CAEC262CF385}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2620,7 +2620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440E5FA0-1D98-44DB-BC94-42AAB8EC4A5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBF192F-EB87-4E0E-90CD-321D4F6797E9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3893,17 +3893,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B6335D1B-A7D2-48DF-8BFE-8109F3BDECDE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FAE93255-6B07-421D-A996-A65BE5B2F9D5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{237CF4BC-8C8E-459B-A214-BE92B923EC12}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EDC8EB73-9EAA-4043-ADFB-13219A9C15BF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{55D97A67-B0F0-441C-9BF0-D331CB617737}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{61782B34-EAAA-4A7A-9772-E24FB921DA47}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5126F98E-AF7A-4A7A-9E62-61BEE568BA43}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BE17984E-EAD9-4EF8-A307-8AD72DAC1FB1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6C9709A0-3FC1-4CA2-B38C-4A6F0C0667D1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{807426CB-E0D6-4554-A377-2B5ED128ED37}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{50D9AEAC-95AB-42FD-A0B1-4C910CC4C8F8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1198816D-8B10-40F5-8B81-FE4229E18154}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8FF5F9BD-562E-4B5B-8E44-2DB2D1B4EE3B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{21C4F523-269D-4B01-9CBF-A69B253709A9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0A234B2F-9A88-4ADA-A566-47FE224CB9DB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9BBC14AA-5FA3-4E1D-9139-E6EDCA048BF9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ADEA4F00-8265-4DB9-B0C8-64F3787A6E2D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BE3F4EDE-6FC6-495F-A7F3-BADE1F589EBC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D2E3B369-D359-4E31-B32C-7485BDC1543B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{80E5252A-32C0-4FDA-87F6-E761558175CE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0A7BEF96-F814-4DF2-B7DB-9474BD684D25}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B6B28EBA-1C97-467F-92DE-2E301B70C8E1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3916,7 +3916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB91D5EA-8580-4B70-B338-5AEB60D0CC7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A99E8ED-58A1-40CD-A563-799846B01475}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5191,17 +5191,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{753EA3A6-3296-49B9-932B-0AA487E9A328}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ADE9DDAD-F197-4213-B135-7D79EBD3C70F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EBFCB38B-027B-438C-8A13-294C239D3035}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A6724E03-A251-4FCA-8368-D17BCC296C1D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5A294DA4-BD05-499D-AAA7-268AA96C93B2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{936F9D79-77DA-4FD9-B4BC-ED1ABBBC12A7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CADEF206-8D56-423E-9F07-A720E095ED58}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8E6145F5-173A-4992-A2E3-747F259474C7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{748A3108-449A-4F6C-AD9B-3A33B7846685}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{830C0F55-F0B7-4BE8-9FDE-7857D19D7E2E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9DCB5152-FD70-46CC-B756-3CAF8F2352F6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2E4502D5-2C6A-402A-979A-160278DECDF3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6299AD31-B4E8-4D26-B939-01644043C648}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6ACEBC54-83D7-4AA3-8E4D-B5DB4FD6F1F4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9193D6E1-B57C-454F-B578-7D747108608E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B61E7385-FFD8-4AEB-B5DB-C2CAB298D11E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D1FF92F3-AB8D-41C7-A796-7926447AEC2E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6270B9E7-CCD1-49EF-8563-235DEFEC729F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CE46F78E-2284-44B9-B78A-3C3095235FA3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E2B009A3-29BD-48AF-855F-DC67DD31D977}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{788B5A1C-29B2-4334-8715-0420FF93E1FD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2699DB79-BF25-4C4F-AC7D-5DAB384BC389}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5214,7 +5214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A65F1B0-4EAB-41BB-8BE5-5AB2BE78B487}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F876FBA-B3BD-4DC5-B552-B9B5C4A36B15}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6481,17 +6481,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{753B0ECD-37BF-4C98-97E0-8B4544871468}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{94140683-4F35-4D7B-BF9C-BD84C0D69540}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{97AB50D0-98F4-4DBA-A824-AB8B60992392}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{48A0AF48-2FAC-4C14-B9A6-E9DAD063AD23}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{053C789C-25BC-4B77-BE28-71E16CF3FB5F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2AF0BF00-C714-4310-8494-F17DF7EA8554}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B8568980-C1AD-499C-A04A-E569B4953DBE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3A7580AB-EFEB-4615-9D96-7C3441180076}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BFB87872-00D9-4734-A5D3-3EA8B5970261}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{23BAC23C-AB98-4BEE-9CBE-51682293E6B4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6599C957-FAB7-4397-839B-57EE66A0A99C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CC18FF41-06F9-401A-BD4F-79909C9739AB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{12EA9C28-5859-4FDE-A2E3-634A0C2A0660}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{995DCE9F-3769-4C9B-A089-B8766B6B9B14}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{909EF467-28E9-4ED5-98D0-8B629865171A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{861987B8-B0FD-40B2-836A-0EDBA4370B29}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{32DD9746-17A6-4B36-8112-68BE296E7A99}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{05AEE788-B8A4-42EC-AAB5-CC9E761EAE23}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{569981C7-70C8-4B7B-8528-53F3499B34B8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6586E9DC-56AB-4ADB-B747-309402E9C374}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9054EB32-9977-4F72-AA81-E829D43E746B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{534B843A-008A-4153-BCF2-842F837071D5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6504,7 +6504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587EC817-2E0D-4381-B27D-53A9F9CB0D78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848C3D7B-AF02-43DF-B2A1-D3625044FF79}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7783,17 +7783,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{185B2DF4-DF03-4DFC-84A9-6AAE83A0CDAA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC33F4C3-EB89-4035-9439-56DDC34C7F2E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{01F94677-6E29-460F-A572-AB11BCD1842D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{327DAEA5-4C9E-4B44-9A7A-574362A4D9A6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3C40D662-3775-4F92-9BC5-0442A9930A7A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C77C407F-35D9-45AF-86D4-95AD6D9AFE00}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D67F8177-22FE-4935-9D5C-6FFFB2098435}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{55BBDA18-3F66-4EB9-9920-372BF28E5C62}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CB6C485F-B5C0-433A-BF6C-EDDCC9AF614A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{84E3C33B-7302-46C2-9467-58A86DE9D7E9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6A000E6C-2E95-4ABF-A118-AC137C6B36F6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{883D6ED9-2C86-415B-BA34-BB2131EADA7B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8845C30B-9CC8-4685-B01C-D3ED123AC6A9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{33094000-1B95-4FBA-BC95-81149B4545CB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E880B573-33F1-4F06-A521-EA83828763DB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{273431BE-8E29-47B9-9B64-F9D2F61F1321}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1CCC167C-F5D0-4159-802E-326BE52FE949}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{21A73CF9-D5BC-45BE-941A-E0635F8C809F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BE4A578A-3DFD-41B4-BD21-859A7A09DA61}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{61D15DED-1599-4F78-B1C2-4607823A2154}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0469EFBA-45AB-4C90-8DBA-7339677F49D4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5D3C8C68-786B-48D3-BEBC-2A886E3AE061}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7806,7 +7806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A056A426-1CFD-41C4-AF65-EABD1A158BB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C1E549-7C7A-4B68-9035-4D4589EC9B13}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9087,17 +9087,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{616E958B-0A18-40AA-906B-B4D89A63E5A3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D8BEDABC-4858-4A1C-AD9C-BEF60AA361DC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{62E853FE-7233-46E3-95A5-66239690F366}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1F1B3F8E-06E3-417B-85D1-CEAB26E6E195}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{627A2497-971D-492F-BD7A-6AB405A96BCD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{34638D37-0712-42C7-B494-A3C8EDAA45B8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D92C5E3B-8916-492E-B1CF-2D295290E6B3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5AE7CC16-E9FE-4F1D-934A-9D0D93A68189}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C375E7B1-2737-4AD6-877B-AF63B5965A8D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9B3D8877-2CF3-43CD-92C7-326E089D9813}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{16D5FCE5-EDE6-4CB6-AA6B-7C78246EFB1F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F205EBB0-5F28-4F17-BF7B-57233ECB4507}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{160E389A-5E1D-4704-B7FF-0C8570FC77C4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{650BB793-1BEE-4C5C-8B7C-567AE487200E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{58D742ED-05C4-4530-8B75-05BEA5F7E8CB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0F013B01-782E-48EB-ACA0-97EEBD827BC9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8B3303A1-0147-4A23-A122-FAD9D89EBCAB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FA72B5F0-C589-47E1-9BAE-D33EF90CB7EE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6EB9266F-E766-4A94-8F5F-0CEB1FDD2D40}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1C21835C-3739-4A1E-AA7A-F4C0AB89BF99}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F97DC229-2071-46CD-97A3-7D08B6E0EF72}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{88E05F9A-1304-43AA-BAE7-4764D85FCC58}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9110,7 +9110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79743AEA-E999-4BE8-9280-B7D899662FC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114D34D9-450E-460B-A810-0BDB27FEE792}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10391,17 +10391,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{256F9379-48A8-49A0-8EE4-B0C309C71FA7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{53B61ABD-3418-4DED-8FE3-2ABB2174DB5A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1D1C5115-4BC0-4098-B4DE-A565E69B37F4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9B85C536-9322-4726-963B-9449E99F6BDB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{77681418-8719-4BF6-A854-FA440597128C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3A108D1F-0519-4E24-9AD2-263F8A959289}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{407CB361-112F-4A25-849D-7257650FEC43}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1158C388-CBC5-4B9C-B8BA-ED0C442A8F8C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A85F3964-E852-4FB8-B69D-D95396F9ABBA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{55BE8D02-BC0F-473D-BDE2-AE05AF253A10}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BD2CE2D7-FB9A-43D2-8F8C-4E4D111F0200}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AFDD0908-A3B6-49FE-96E4-92263EADE220}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{28D16963-7229-4DEE-A5E3-EC5EBA3681B9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A00A432C-0FAA-44A4-A5E5-F46D368792D7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C6B33701-AD13-40FF-B0B9-678B4ABF6A45}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4B1F823F-12D4-4970-9D1A-183903758931}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1673D9F8-ED7A-4BC9-8588-A14BAC61A8DF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1CFF55EE-13F3-4752-90A7-27EF9E6B4491}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B2E541A9-92E5-4049-A852-77906B27145E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{89C6B47E-87CC-4DFB-8E2E-058469910762}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6327DAED-1116-4CEA-A8D9-46B8A764403F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8C5C7DB1-4A66-474A-A6CD-9C1252961521}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10414,7 +10414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26237161-44D0-47E8-AEFF-3F37062E5D6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF26C8C-28F8-4ECD-8065-8AE6EF9A457A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11691,17 +11691,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{185DD391-CEF5-4066-A0CD-B186BE848878}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{907F19A2-45FB-46FB-AD88-3B580F875B55}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AC165827-B0C3-4DF1-9BE8-BCF9CAE9F96B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{51421F45-3758-4500-A97C-C0D87729E976}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3C93B64A-9E51-45E3-9572-04F2EB3A02B0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3C5539E8-F121-4AAC-84D3-41DE89F2BE4B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{15556F23-3D03-4529-B74A-544B6417EC6C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3E36CC25-585B-4C88-B5C7-592EDA3685A6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C525F82F-A45F-4273-BE55-2D93D126A0EF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C928A94E-EC79-4497-827C-67B8F1C712B3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DB687725-59CB-4374-8FE5-CB9912F283C4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7AA548E9-5674-4C5A-A5B0-BA93C6D001E0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{11CEC2F2-6974-4A67-8134-52D74760B662}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8D4DE119-BF7F-4F34-A844-C1A27CA57021}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{265027C9-BC5C-478F-BABC-9EAECEF926F2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{24A93082-E82A-4AD5-9A32-91DA3309EC0D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1EB9A0F1-67A9-42AA-97E8-031A896E5711}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6AC8A4B2-FD2A-4175-8514-08903355838C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B3DF4AE8-4994-4B21-B369-510E47DD2293}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C3C4AE70-EC46-434E-ACC8-D9244A40806D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E6BB99BC-3DA6-4648-81B9-F26CE51853FB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B69334E8-7623-4E94-AA11-7153991E60F8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11714,7 +11714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6278CF5-7DD0-482D-B0EF-38CE4B66112E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2228E547-0339-418F-A772-231F4FDC9A68}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12991,17 +12991,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{424DC4F2-9EDD-45F7-8F75-B1872DFE82C2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F7B0F619-C2D9-43A6-A368-76D1939E9E81}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{68ECC747-0393-458D-8068-8F96873EE4AF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2A1E5727-52BB-4E81-8CA1-946DCCADB0E7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{487A553B-F06A-4A3E-A11C-1AB6CAF644A9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DF2DB8B5-4335-43BE-B935-6C37EE9CB8F2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3EBD7909-FB16-44B5-ACA5-6A0EC0E021A8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C44291E8-44A8-4A16-BC23-A3D48FAF9CD8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B1FE4DD4-CBE1-4160-8ACB-EC584A6576CF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AE06353E-CEE1-4F79-B4F4-98F333388030}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AB7BA5F0-25F9-46CD-B98E-AACB4E78A0C0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5AB189FB-3D77-4ECF-9030-BD050A3EB0D6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{52D00076-DD5D-4EC7-BBAC-F77D48A8BC95}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A257D3D5-2870-41E4-89CB-B0CA083E3822}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{12D8F843-2043-4A1C-8AF3-0A34AD0B200E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{10E75D0A-F839-4365-A45B-9DD992FA24D1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{32FBFB22-CBAF-4B73-8FDF-78E008CFDCAA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{65BFEE66-E362-4121-AFF4-76C141208DF5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E4C479DA-D61E-47EB-8D78-8AF184F31A2E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{80E65D17-D923-472B-A739-33671F6592A0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EFE4BF24-13FA-4157-B07B-A21352C9AF1C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{324DB4E2-B862-4869-A5B3-1C4DCE2A6E9C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13014,7 +13014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CB59FB-885B-489F-8199-03DA07EEC413}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3946099A-C821-4A65-9449-6166F8E4A403}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14291,17 +14291,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{12483E56-67DE-42A9-B53A-5C8A8FA42F12}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{06773D50-8B7F-4AAA-9232-264D846D8F4E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2817411B-8EF8-421E-8359-B084E2058DE5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AFDC3932-4BE2-43E7-B66E-4983014C8DBB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EF8F4C88-E74B-4C5F-880D-7A3D51675808}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{15B87F24-5CA8-4E66-9C85-FA82068C9AF5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{73D47BCE-4716-4073-B7D7-7350B58BF066}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{88EEA7FE-9FD9-443F-8031-1FA94718E267}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2B7616CF-DD4F-4691-A854-703E4409B42C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5B1FCB8A-E576-44B5-B7E0-7B869A59CEF9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F83B427B-051D-41CF-B7F8-9CCDF9342866}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3D4E56EF-5569-4DCD-85C8-E72EF55EBE69}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1B01375F-B01B-4A82-AE5D-98A44BB7F951}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B519E7A5-B746-40C3-B7FE-7F19226AA951}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EF07BA38-7BB9-49AC-969E-FC4F45D56430}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C340CC65-AE6B-4019-9300-E569F9522B85}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{63551B4C-E57E-49D6-9675-0735D211AD70}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{87E2EF1A-9794-4A71-9C0A-CA24532E84B2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{771B82DF-67EA-4D4A-83F4-1AFFC9545F20}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{63191C49-0E47-4F3F-8040-862635C48F8C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F17D5C04-4E27-4678-8BFA-B6CB198E57DC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1FBB6E08-99EA-43BB-AE87-A87D9378164D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14314,7 +14314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC815D6-0BFB-4D4F-910D-C8761F24F894}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563B05CC-885F-4136-BFAE-0A960CBF32B3}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15593,17 +15593,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{575432C1-5A14-4A33-9026-5B1D0A34B230}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{03A59134-F7E6-43F8-A833-6F71960C3443}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E7532A79-ECC6-45D1-AC05-F8826DC172C1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6B1BD090-D4E6-45F7-8D85-11CD9E57FCC1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2B701950-5CD6-462B-ADE9-53F29B652C02}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{15700FDD-C1D0-4D6D-BF6C-66E871026683}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{21426177-6D3A-436E-81CE-FE389C0DA92A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AEEEBB7A-11E2-4296-906D-1CDF7929743D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{00DBF4BC-3D46-4B7D-9838-C5332D79236D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{456169B4-7BBE-4EC2-A2D6-9F4BCD96FE22}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{61331056-0C50-4A83-9B84-9AF28DDA6276}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A4A097EC-58E8-458A-8E69-5FE87B57EAF1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E7C01FFB-7E94-4820-BF9A-65A9E2518AF7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{42389D4D-A1B2-4596-9FF3-E03ADC862CFB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{61059EC3-317D-43D1-A24F-479287E20924}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FE9DE8E4-8498-4410-A7F2-EAAFB4E81E43}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D1E5D0F1-5C2E-4D63-B5A6-73F484CDD655}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4028B5ED-52D9-4C18-AEE4-D421E6337B4C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F34F6B7-ECC1-4D07-8551-2C51EE09A55F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D3F3A2C8-E03C-48B5-ADD5-F9DE120A09DF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DB97EA8A-EFEA-4921-84ED-7B8EB34B11D5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{40AAE0AF-4947-4D54-8B89-5485903C88AA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15616,7 +15616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07A0600-3B67-463F-A5DA-594ABECFBA12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4612AC-F4FB-4244-AA76-5BDF42538836}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16895,17 +16895,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{82FC5D82-FFE3-4FF9-A86C-01BDA4505921}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FBF2AA55-B72D-4EC1-A986-05CABF974C76}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1CCBCBA8-8B2D-4C44-BDF9-AA19ABBD2F6F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E742F028-66B5-4EB0-B7FB-25974CFD2A85}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E69AFA83-DDD7-4237-8003-52B6B4FA4C15}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{86091974-A121-4F0D-92D2-502154683AD3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BBA671EE-F142-47DB-A5DE-661F9286BD90}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{083B14BB-634C-4504-8720-4A8565A065FF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C840D094-DE79-41CB-BA58-4B44E35EF006}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6EB4F319-AF09-4D5C-9EB4-DA6A9C8858D2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{04186B11-A4C0-4ABE-919D-9E1583CF44EC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FD31C330-C712-498E-95E7-15F12D606280}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2D1E4AF6-B58F-472E-A5F6-01126C5B6096}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{941F7CFD-96E0-4615-83C9-712148849AEB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DA3BE4CF-8C92-46BE-A87F-00F90671E1FF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{82D21A8F-37CC-4844-8794-6E852CD4CB43}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{361EFF84-60D4-4460-B720-A3D1EE788C16}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B92DBF7E-8139-4794-B004-482114C4DACC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D87132C3-4072-4209-B5BB-857E648FBD0E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FA9F3A4A-BE75-41EC-AE9E-BD548C045CBA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CCFB9B02-8BA8-4AFC-943B-908F0C9A188E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A6C0D9C2-6910-45AB-84D9-3E1BC797B4B3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
